--- a/stress_strain_excel/stress_strain_lap=10_1.xlsx
+++ b/stress_strain_excel/stress_strain_lap=10_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/stress_strain_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imp01/Documents/kajimoto/ansys-management/stress_strain_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C362C1-A316-1642-B339-6895A73F6D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7110C4C-CFC0-364A-B4B2-E7CF9A9EAE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="1400" windowWidth="16100" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,6 +143,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44913888888888887"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1601,15 +1609,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1925,7 +1933,7 @@
   <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
